--- a/backend/Customer Emails.xlsx
+++ b/backend/Customer Emails.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet11" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -355,4 +357,66 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tester One</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>soxreceiver@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tester One</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>soxreceiver@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/Customer Emails.xlsx
+++ b/backend/Customer Emails.xlsx
@@ -2,14 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,10 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -36,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,15 +50,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -347,15 +371,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -388,35 +425,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tester One</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>soxreceiver@gmail.com</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/backend/Customer Emails.xlsx
+++ b/backend/Customer Emails.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,4 +427,66 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tester One</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>soxreceiver@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tester One</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>soxreceiver@gmail.com</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/Customer Emails.xlsx
+++ b/backend/Customer Emails.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Customers1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -371,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,39 +390,52 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tester One</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dbctesteremail@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tester Two</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>soxreceiveremail@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tester Three</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>soxreceiver2email@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Tester One</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>soxreceiver@gmail.com</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>